--- a/reporte_ventas.xlsx
+++ b/reporte_ventas.xlsx
@@ -7,9 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reporte Ventas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Detalle Ventas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medio de Venta" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Detalle Ventas'!$A$1:$J$18</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -17,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +30,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,9 +56,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -126,6 +136,93 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Distribución de Medios de Venta</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Medio de Venta'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Medio de Venta'!$A$2:$A$4</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Medio de Venta'!$B$2:$B$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6480000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,7 +514,768 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="4" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Medio de Venta</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Costo Total Insumos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Venta</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Comisiones Venta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ganancia Bruta</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Rentabilidad Bruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>25-02-2025</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25-02-2025</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>25-02-2025</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G4" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24-02-2025</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>WhatsApp</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G5" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24463.17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24-02-2025</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>WhatsApp</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24463.17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23-02-2025</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24463.17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23-02-2025</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G8" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24463.17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23-02-2025</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G9" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>24463.17</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21-02-2025</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G10" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21-02-2025</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G11" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21-02-2025</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G12" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25-02-2025</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G13" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24463.17</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>26-02-2025</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G14" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>26-02-2025</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G15" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26-02-2025</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G16" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>26-02-2025</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G17" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Torta Argenta (Entera)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>26-02-2025</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PedidosYa</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>22936.83</v>
+      </c>
+      <c r="G18" t="n">
+        <v>47400</v>
+      </c>
+      <c r="H18" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12376.17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="F19" s="2">
+        <f>SUBTOTAL(9,F2:F18)</f>
+        <v/>
+      </c>
+      <c r="G19" s="2">
+        <f>SUBTOTAL(9,G2:G18)</f>
+        <v/>
+      </c>
+      <c r="H19" s="2">
+        <f>SUBTOTAL(9,H2:H18)</f>
+        <v/>
+      </c>
+      <c r="I19" s="2">
+        <f>SUBTOTAL(9,I2:I18)</f>
+        <v/>
+      </c>
+      <c r="J19" s="2">
+        <f>I19/F19</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J18"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,172 +1284,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Venta</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unidades</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Costo Total Insumos</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Valor Venta</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Medio de Venta</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Comisiones Venta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Ganancia Bruta</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Rentabilidad Bruta</t>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Cantidad de Ventas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Torta Argenta (Entera)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-02-25T17:08</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22936.83</v>
-      </c>
-      <c r="F2" t="n">
-        <v>47400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>PedidosYa</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>12087</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12376.17</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.54</v>
+      <c r="B2" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Torta Argenta (Entera)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-02-25T17:08</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>WhatsApp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>22936.83</v>
-      </c>
-      <c r="F3" t="n">
-        <v>47400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>PedidosYa</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>12087</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12376.17</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Torta Argenta (Entera)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-02-25T17:08</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>22936.83</v>
-      </c>
-      <c r="F4" t="n">
-        <v>47400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>PedidosYa</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>12087</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12376.17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.54</v>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>